--- a/ExcelFile/FB_LoginPass.xlsx
+++ b/ExcelFile/FB_LoginPass.xlsx
@@ -7,7 +7,7 @@
     <workbookView xWindow="0" yWindow="2445" windowWidth="16350" windowHeight="6615"/>
   </bookViews>
   <sheets>
-    <sheet name="Login" sheetId="1" r:id="rId1"/>
+    <sheet name="TestData" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="13">
   <si>
     <t>username</t>
   </si>
@@ -35,6 +35,27 @@
   </si>
   <si>
     <t>qgyggtf1234</t>
+  </si>
+  <si>
+    <t>anubhav@gmail.com</t>
+  </si>
+  <si>
+    <t>kjjjjijijkjkjkjkj</t>
+  </si>
+  <si>
+    <t>kunal11@gmail.com</t>
+  </si>
+  <si>
+    <t>jjkjkjkjhkjghkjgjg</t>
+  </si>
+  <si>
+    <t>kali1@gmail.com</t>
+  </si>
+  <si>
+    <t>silky123222@gmail.com</t>
+  </si>
+  <si>
+    <t>ghjghggghjghj</t>
   </si>
 </sst>
 </file>
@@ -384,16 +405,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B3"/>
+  <dimension ref="A1:B7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="19.42578125" customWidth="1"/>
-    <col min="2" max="2" width="15.5703125" customWidth="1"/>
+    <col min="1" max="2" width="21.42578125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
@@ -420,10 +440,46 @@
         <v>5</v>
       </c>
     </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B7" t="s">
+        <v>12</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="A2" r:id="rId1"/>
     <hyperlink ref="A3" r:id="rId2"/>
+    <hyperlink ref="A4" r:id="rId3"/>
+    <hyperlink ref="A5" r:id="rId4"/>
+    <hyperlink ref="A6" r:id="rId5"/>
+    <hyperlink ref="A7" r:id="rId6"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
